--- a/BaseApp/Files/Input/DataFile.xlsx
+++ b/BaseApp/Files/Input/DataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10740" windowHeight="3270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13920" windowHeight="2910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="85">
   <si>
     <t>Action</t>
   </si>
@@ -234,6 +234,42 @@
   </si>
   <si>
     <t>List is Empty</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ttt@te.com</t>
+  </si>
+  <si>
+    <t>dele</t>
+  </si>
+  <si>
+    <t>kupdate</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>qwe@gmail.com</t>
+  </si>
+  <si>
+    <t>bse@gma</t>
+  </si>
+  <si>
+    <t>testupdate@gmail.com</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>ppupdate</t>
   </si>
 </sst>
 </file>
@@ -288,7 +324,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -298,6 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:H112"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155:H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1281,100 +1318,486 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="12.75">
+    <row r="113" spans="1:9" ht="12.75">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1" ht="12.75">
+    <row r="114" spans="1:9" ht="12.75">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1" ht="12.75">
+    <row r="115" spans="1:9" ht="12.75">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1" ht="12.75">
+    <row r="116" spans="1:9" ht="12.75">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" ht="12.75">
+    <row r="117" spans="1:9" ht="12.75">
       <c r="A117" s="3"/>
-    </row>
-    <row r="118" spans="1:1" ht="12.75">
+      <c r="B117" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="12.75">
       <c r="A118" s="3"/>
-    </row>
-    <row r="119" spans="1:1" ht="12.75">
+      <c r="B118" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="12.75">
       <c r="A119" s="3"/>
-    </row>
-    <row r="120" spans="1:1" ht="12.75">
+      <c r="B119" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="12.75">
       <c r="A120" s="3"/>
-    </row>
-    <row r="121" spans="1:1" ht="12.75">
+      <c r="B120" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="12.75">
       <c r="A121" s="3"/>
-    </row>
-    <row r="122" spans="1:1" ht="12.75">
+      <c r="B121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I121" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="12.75">
       <c r="A122" s="3"/>
-    </row>
-    <row r="123" spans="1:1" ht="12.75">
+      <c r="B122" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="12.75">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1" ht="12.75">
+    <row r="124" spans="1:9" ht="12.75">
       <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:1" ht="12.75">
+      <c r="B124" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="12.75">
       <c r="A125" s="3"/>
-    </row>
-    <row r="126" spans="1:1" ht="12.75">
+      <c r="B125" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="12.75">
       <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:1" ht="12.75">
+      <c r="B126" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="12.75">
       <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:1" ht="12.75">
+      <c r="B127" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="12.75">
       <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1" ht="12.75">
+      <c r="B128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="12.75">
       <c r="A129" s="3"/>
-    </row>
-    <row r="130" spans="1:1" ht="12.75">
+      <c r="B129" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="12.75">
       <c r="A130" s="3"/>
-    </row>
-    <row r="131" spans="1:1" ht="12.75">
+      <c r="B130" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="12.75">
       <c r="A131" s="3"/>
-    </row>
-    <row r="132" spans="1:1" ht="12.75">
+      <c r="B131" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I131" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="12.75">
       <c r="A132" s="3"/>
-    </row>
-    <row r="133" spans="1:1" ht="12.75">
+      <c r="B132" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I132" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="12.75">
       <c r="A133" s="3"/>
-    </row>
-    <row r="134" spans="1:1" ht="12.75">
+      <c r="B133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I133" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="12.75">
       <c r="A134" s="3"/>
-    </row>
-    <row r="135" spans="1:1" ht="12.75">
+      <c r="B134" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="12.75">
       <c r="A135" s="3"/>
-    </row>
-    <row r="136" spans="1:1" ht="12.75">
+      <c r="B135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I135" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="12.75">
       <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:1" ht="12.75">
+      <c r="B136" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I136" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="12.75">
       <c r="A137" s="3"/>
-    </row>
-    <row r="138" spans="1:1" ht="12.75">
+      <c r="B137" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I137" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="12.75">
       <c r="A138" s="3"/>
-    </row>
-    <row r="139" spans="1:1" ht="12.75">
+      <c r="B138" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="12.75">
       <c r="A139" s="3"/>
-    </row>
-    <row r="140" spans="1:1" ht="12.75">
+      <c r="B139" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="12.75">
       <c r="A140" s="3"/>
-    </row>
-    <row r="141" spans="1:1" ht="12.75">
+      <c r="B140" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="12.75">
       <c r="A141" s="3"/>
-    </row>
-    <row r="142" spans="1:1" ht="12.75">
+      <c r="B141" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I141" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:1" ht="12.75">
+      <c r="B142" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="12.75">
       <c r="A143" s="3"/>
-    </row>
-    <row r="144" spans="1:1" ht="12.75">
+      <c r="B143" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I143" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="12.75">
       <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" ht="12.75">
@@ -3973,6 +4396,31 @@
     <hyperlink ref="E25" r:id="rId19"/>
     <hyperlink ref="E22" r:id="rId20"/>
     <hyperlink ref="E21" r:id="rId21"/>
+    <hyperlink ref="E143" r:id="rId22"/>
+    <hyperlink ref="E142" r:id="rId23"/>
+    <hyperlink ref="E141" r:id="rId24"/>
+    <hyperlink ref="E140" r:id="rId25"/>
+    <hyperlink ref="E139" r:id="rId26"/>
+    <hyperlink ref="E138" r:id="rId27"/>
+    <hyperlink ref="E137" r:id="rId28"/>
+    <hyperlink ref="E136" r:id="rId29"/>
+    <hyperlink ref="H135" r:id="rId30"/>
+    <hyperlink ref="E135" r:id="rId31"/>
+    <hyperlink ref="E134" r:id="rId32"/>
+    <hyperlink ref="H133" r:id="rId33"/>
+    <hyperlink ref="E133" r:id="rId34"/>
+    <hyperlink ref="E132" r:id="rId35"/>
+    <hyperlink ref="E131" r:id="rId36"/>
+    <hyperlink ref="E130" r:id="rId37"/>
+    <hyperlink ref="E129" r:id="rId38"/>
+    <hyperlink ref="E126" r:id="rId39"/>
+    <hyperlink ref="E124" r:id="rId40"/>
+    <hyperlink ref="E122" r:id="rId41"/>
+    <hyperlink ref="E121" r:id="rId42"/>
+    <hyperlink ref="E120" r:id="rId43"/>
+    <hyperlink ref="E119" r:id="rId44"/>
+    <hyperlink ref="E118" r:id="rId45"/>
+    <hyperlink ref="E117" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3980,10 +4428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A3" sqref="A3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4020,137 +4468,154 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -4158,10 +4623,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>68</v>
@@ -4169,343 +4637,138 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D15" r:id="rId10"/>
-    <hyperlink ref="D16" r:id="rId11"/>
-    <hyperlink ref="D17" r:id="rId12"/>
-    <hyperlink ref="D18" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="G19" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="G21" r:id="rId18"/>
-    <hyperlink ref="D22" r:id="rId19"/>
-    <hyperlink ref="D23" r:id="rId20"/>
-    <hyperlink ref="D24" r:id="rId21"/>
-    <hyperlink ref="D25" r:id="rId22"/>
-    <hyperlink ref="D26" r:id="rId23"/>
-    <hyperlink ref="D27" r:id="rId24"/>
-    <hyperlink ref="D28" r:id="rId25"/>
-    <hyperlink ref="D29" r:id="rId26"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="D5" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D12" r:id="rId14"/>
+    <hyperlink ref="G12" r:id="rId15"/>
+    <hyperlink ref="G8" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
